--- a/bini addnew-library.xlsx
+++ b/bini addnew-library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AKB\Desktop\New folder (4)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B88B72D3-941B-4107-9FE1-A6E893BC4048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1361B1E8-4F8A-469A-BC60-06C4649F88F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8010" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{7B6F395A-61F1-42E2-BB0A-89A749CCCC84}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7B6F395A-61F1-42E2-BB0A-89A749CCCC84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Add New</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>bini</t>
+  </si>
+  <si>
+    <t>ShelfMaster</t>
+  </si>
+  <si>
+    <t>SUBJECT</t>
+  </si>
+  <si>
+    <t>15 minutes</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -395,22 +407,10 @@
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -429,6 +429,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,113 +758,126 @@
   <dimension ref="C2:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
     </row>
-    <row r="5" spans="3:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="J5" s="2"/>
+    <row r="5" spans="3:10" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="3:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J6" s="3"/>
+    <row r="6" spans="3:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="3:10" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="3:10" ht="32.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="3:10" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="22" t="s">
+    <row r="8" spans="3:10" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="3:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="20" t="s">
+    <row r="9" spans="3:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="19" t="s">
+      <c r="E9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="11">
+      <c r="G9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7">
         <v>2</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="7"/>
+      <c r="I9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="3:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="23"/>
-      <c r="D10" s="21" t="s">
+    <row r="10" spans="3:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="19"/>
+      <c r="D10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="15">
+      <c r="G10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="11">
         <v>2</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="7"/>
+      <c r="I10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="3:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="3:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D2:F4"/>
